--- a/RTL/tangprimer20k_vdp/vdp_cartridge_pinassign.xlsx
+++ b/RTL/tangprimer20k_vdp/vdp_cartridge_pinassign.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="223">
   <si>
     <t>PIN</t>
     <phoneticPr fontId="1"/>
@@ -917,6 +917,10 @@
   </si>
   <si>
     <t>SLOT_CLOCK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BUSDIR</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1615,8 +1619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A182" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1955,7 +1959,7 @@
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="6" t="s">
-        <v>160</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.15">
